--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/42/word_level_predictions_42.xlsx
@@ -29,12 +29,17 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6B6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -11468,522 +11474,522 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="E213" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="E222" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14640,156 +14646,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
+      <c r="A274" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B274" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C274" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" t="n">
+      <c r="D274" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="E274" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori4/42/word_level_predictions_42.xlsx
@@ -29,17 +29,12 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFB6B6"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -60,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -11474,522 +11468,522 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>12</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>5</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
+      <c r="E213" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>12</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>6</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>12</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>7</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>12</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>8</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>12</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>violation</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>9</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>12</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>10</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>12</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>local</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>11</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>12</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>laws</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>12</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>12</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>13</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>12</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>regulations</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>14</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
+      <c r="E222" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14646,156 +14640,156 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>15</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
+      <c r="D274" t="n">
         <v>4</v>
       </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="E274" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>15</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>5</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>15</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>hover</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>6</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
